--- a/TOR130 Data/100x100trail/TOR130_2024.xlsx
+++ b/TOR130 Data/100x100trail/TOR130_2024.xlsx
@@ -1219,7 +1219,7 @@
     <t>2353</t>
   </si>
   <si>
-    <t>Cogliati  Gionata</t>
+    <t>Cogliati Gionata</t>
   </si>
   <si>
     <t>Ornati Giulio</t>
@@ -1249,7 +1249,7 @@
     <t>Vallarino Francesco</t>
   </si>
   <si>
-    <t>Dola  Michael</t>
+    <t>Dola Michael</t>
   </si>
   <si>
     <t>Dematteis Luisa</t>
@@ -1282,7 +1282,7 @@
     <t>Scanziani Marco</t>
   </si>
   <si>
-    <t>Sjursen  Therese</t>
+    <t>Sjursen Therese</t>
   </si>
   <si>
     <t>Bouriel Yoann</t>
@@ -1339,13 +1339,13 @@
     <t>Finlay Paul</t>
   </si>
   <si>
-    <t>Giovinazzo  Giuseppe</t>
+    <t>Giovinazzo Giuseppe</t>
   </si>
   <si>
     <t>Carusi Fabio</t>
   </si>
   <si>
-    <t>Challeat  Fabien</t>
+    <t>Challeat Fabien</t>
   </si>
   <si>
     <t>Vineis Umberto</t>
@@ -1393,7 +1393,7 @@
     <t>Doat Pierre</t>
   </si>
   <si>
-    <t>Maqueda  Audrey</t>
+    <t>Maqueda Audrey</t>
   </si>
   <si>
     <t>Maqueda Laurence</t>
@@ -1432,7 +1432,7 @@
     <t>Pin Gregory</t>
   </si>
   <si>
-    <t>Vernet  Thomas</t>
+    <t>Vernet Thomas</t>
   </si>
   <si>
     <t>Alvez Barrero Fernando</t>
@@ -1447,7 +1447,7 @@
     <t>Lombard Fabrizio</t>
   </si>
   <si>
-    <t>Frattini  Mirko</t>
+    <t>Frattini Mirko</t>
   </si>
   <si>
     <t>Van Houten Mark</t>
@@ -1522,10 +1522,10 @@
     <t>Grottini Francesco</t>
   </si>
   <si>
-    <t>Cesaretti  Filippo</t>
-  </si>
-  <si>
-    <t>Saieva  Maximiliano</t>
+    <t>Cesaretti Filippo</t>
+  </si>
+  <si>
+    <t>Saieva Maximiliano</t>
   </si>
   <si>
     <t>Pastorino Adriano</t>
@@ -1663,7 +1663,7 @@
     <t>Costa Francisco</t>
   </si>
   <si>
-    <t>Hecquet  Emmanuelle</t>
+    <t>Hecquet Emmanuelle</t>
   </si>
   <si>
     <t>Andeol Guillaume</t>
@@ -1729,10 +1729,10 @@
     <t>Aguilar Hector</t>
   </si>
   <si>
-    <t>Rosano  Mattia</t>
-  </si>
-  <si>
-    <t>Bieller  Didier</t>
+    <t>Rosano Mattia</t>
+  </si>
+  <si>
+    <t>Bieller Didier</t>
   </si>
   <si>
     <t>Faccini Manlio</t>
@@ -1789,7 +1789,7 @@
     <t>Mamino Luca</t>
   </si>
   <si>
-    <t>Juglair  Julien</t>
+    <t>Juglair Julien</t>
   </si>
   <si>
     <t>Merico Christian</t>
@@ -1813,7 +1813,7 @@
     <t>Badarello Andrea</t>
   </si>
   <si>
-    <t>Genisio  Davide</t>
+    <t>Genisio Davide</t>
   </si>
   <si>
     <t>Stuffer Luca</t>
@@ -1843,7 +1843,7 @@
     <t>Malagoli Denis</t>
   </si>
   <si>
-    <t>Crucioli  Riccardo</t>
+    <t>Crucioli Riccardo</t>
   </si>
   <si>
     <t>Nakkachian Joffre</t>
@@ -1936,7 +1936,7 @@
     <t>Lewis Matthew</t>
   </si>
   <si>
-    <t>Forcuti  Marco</t>
+    <t>Forcuti Marco</t>
   </si>
   <si>
     <t>Parodi Alessandro</t>
@@ -1999,7 +1999,7 @@
     <t>Hartvig Riccardo</t>
   </si>
   <si>
-    <t>Grabiasz  Miguel</t>
+    <t>Grabiasz Miguel</t>
   </si>
   <si>
     <t>Thiou Angelique</t>
@@ -2059,13 +2059,13 @@
     <t>Delpiano Alessandro</t>
   </si>
   <si>
-    <t>Garnett  Krystal</t>
+    <t>Garnett Krystal</t>
   </si>
   <si>
     <t>Moreland Richard</t>
   </si>
   <si>
-    <t>Carlsson  Per</t>
+    <t>Carlsson Per</t>
   </si>
   <si>
     <t>Piana Michele</t>
@@ -2104,7 +2104,7 @@
     <t>Ferraris Maurizio</t>
   </si>
   <si>
-    <t>Perez  Ivana Belen</t>
+    <t>Perez Ivana Belen</t>
   </si>
   <si>
     <t>Sirci Roberto</t>
@@ -2158,13 +2158,13 @@
     <t>Boniface Remy</t>
   </si>
   <si>
-    <t>Boniface  Emile</t>
+    <t>Boniface Emile</t>
   </si>
   <si>
     <t>Debernardi Enrico</t>
   </si>
   <si>
-    <t>Sbrini  Claudio</t>
+    <t>Sbrini Claudio</t>
   </si>
   <si>
     <t>Milosavljevic Marijana</t>
@@ -2218,10 +2218,10 @@
     <t>Fritz Leo</t>
   </si>
   <si>
-    <t>Carta  Filippo</t>
-  </si>
-  <si>
-    <t>Pianta  Fabio</t>
+    <t>Carta Filippo</t>
+  </si>
+  <si>
+    <t>Pianta Fabio</t>
   </si>
   <si>
     <t>Pascon Gabriele</t>
@@ -2233,7 +2233,7 @@
     <t>Colmer Graham</t>
   </si>
   <si>
-    <t>D Este Massimiliano</t>
+    <t>DEste Massimiliano</t>
   </si>
   <si>
     <t>Lonigro Enrico</t>
@@ -2242,7 +2242,7 @@
     <t>Challancin Manuel</t>
   </si>
   <si>
-    <t>Challancin  Patrick</t>
+    <t>Challancin Patrick</t>
   </si>
   <si>
     <t>Romero Estrada Vanessa</t>
@@ -2269,7 +2269,7 @@
     <t>Mayo Carson</t>
   </si>
   <si>
-    <t>Saletti  Ivano</t>
+    <t>Saletti Ivano</t>
   </si>
   <si>
     <t>Marino Andrea</t>
@@ -2284,7 +2284,7 @@
     <t>Giuntoli Giuseppe</t>
   </si>
   <si>
-    <t>Giuntoli Vercellin  Nico</t>
+    <t>Giuntoli Vercellin Nico</t>
   </si>
   <si>
     <t>Bardino Monica</t>
@@ -2374,10 +2374,10 @@
     <t>Jensen Torben C G</t>
   </si>
   <si>
-    <t>Castagneri  Fabrizio</t>
-  </si>
-  <si>
-    <t>Duperret  Patrick</t>
+    <t>Castagneri Fabrizio</t>
+  </si>
+  <si>
+    <t>Duperret Patrick</t>
   </si>
   <si>
     <t>Agnoletti Maurizio</t>
